--- a/Celda Robotizada/Costos y Materiales.xlsx
+++ b/Celda Robotizada/Costos y Materiales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f7a54f46950a5e5/Documentos/Cosas de Sebastian/APM/Esdek/Celda Robotizada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="11_F25DC773A252ABDACC10480D715B4E825ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{806EF742-FC60-4B2C-97C6-0523EC679832}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="11_F25DC773A252ABDACC10480D715B4E825ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83080E32-A1BB-4168-B705-338229AAF405}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>ITEM</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Mandril de 3/8</t>
+  </si>
+  <si>
+    <t>Mercado libre</t>
+  </si>
+  <si>
+    <t>Conveyor 400mm*3000mm</t>
   </si>
 </sst>
 </file>
@@ -176,6 +182,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,7 +454,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,6 +559,9 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -564,10 +577,17 @@
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
